--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Cd36.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N2">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O2">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P2">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q2">
-        <v>12810.35244199036</v>
+        <v>8959.663271907706</v>
       </c>
       <c r="R2">
-        <v>51241.40976796143</v>
+        <v>35838.65308763082</v>
       </c>
       <c r="S2">
-        <v>0.01347875490560709</v>
+        <v>0.004603679087164068</v>
       </c>
       <c r="T2">
-        <v>0.00716347219751509</v>
+        <v>0.002480313049679037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N3">
         <v>0.236996</v>
       </c>
       <c r="O3">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P3">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q3">
-        <v>2.499950884024</v>
+        <v>1.742292802218</v>
       </c>
       <c r="R3">
-        <v>14.999705304144</v>
+        <v>10.453756813308</v>
       </c>
       <c r="S3">
-        <v>2.630390178131575E-06</v>
+        <v>8.952297306123708E-07</v>
       </c>
       <c r="T3">
-        <v>2.096936294370613E-06</v>
+        <v>7.234811358233727E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N4">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O4">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P4">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q4">
-        <v>6430.634262321104</v>
+        <v>1498.706299013659</v>
       </c>
       <c r="R4">
-        <v>38583.80557392663</v>
+        <v>8992.237794081957</v>
       </c>
       <c r="S4">
-        <v>0.006766163811802086</v>
+        <v>0.0007700694364489411</v>
       </c>
       <c r="T4">
-        <v>0.005393958124000833</v>
+        <v>0.0006223326722670907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N5">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O5">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P5">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q5">
-        <v>1007.817431066358</v>
+        <v>1334.298433944395</v>
       </c>
       <c r="R5">
-        <v>4031.269724265432</v>
+        <v>5337.193735777581</v>
       </c>
       <c r="S5">
-        <v>0.001060402061883586</v>
+        <v>0.0006855929302215471</v>
       </c>
       <c r="T5">
-        <v>0.0005635654585076537</v>
+        <v>0.0003693752451897588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N6">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O6">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P6">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q6">
-        <v>10746.57795576303</v>
+        <v>1137.96768991</v>
       </c>
       <c r="R6">
-        <v>64479.4677345782</v>
+        <v>6827.806139460003</v>
       </c>
       <c r="S6">
-        <v>0.01130729938896392</v>
+        <v>0.0005847137215896298</v>
       </c>
       <c r="T6">
-        <v>0.009014132837461905</v>
+        <v>0.0004725371968352846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N7">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O7">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P7">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q7">
-        <v>2798.538105816618</v>
+        <v>8455.108917959593</v>
       </c>
       <c r="R7">
-        <v>16791.22863489971</v>
+        <v>50730.65350775756</v>
       </c>
       <c r="S7">
-        <v>0.002944556708577442</v>
+        <v>0.00434442756653031</v>
       </c>
       <c r="T7">
-        <v>0.002347388567818646</v>
+        <v>0.003510955102201212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N8">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O8">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P8">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q8">
-        <v>33691.15648849647</v>
+        <v>33810.91021004746</v>
       </c>
       <c r="R8">
-        <v>202146.9389309788</v>
+        <v>202865.4612602847</v>
       </c>
       <c r="S8">
-        <v>0.03544905129279501</v>
+        <v>0.01737281586686631</v>
       </c>
       <c r="T8">
-        <v>0.02825983873984382</v>
+        <v>0.01403986499332763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N9">
         <v>0.236996</v>
       </c>
       <c r="O9">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P9">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q9">
-        <v>6.574857079741778</v>
+        <v>6.574857079741779</v>
       </c>
       <c r="R9">
-        <v>59.17371371767599</v>
+        <v>59.173713717676</v>
       </c>
       <c r="S9">
-        <v>6.91791170606278E-06</v>
+        <v>3.378311340561688E-06</v>
       </c>
       <c r="T9">
-        <v>8.272396387215037E-06</v>
+        <v>4.095280421757213E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N10">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O10">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P10">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q10">
-        <v>16912.5327529619</v>
+        <v>5655.639343731059</v>
       </c>
       <c r="R10">
-        <v>152212.7947766571</v>
+        <v>50900.75409357953</v>
       </c>
       <c r="S10">
-        <v>0.01779497362328679</v>
+        <v>0.00290599632833447</v>
       </c>
       <c r="T10">
-        <v>0.02127912031355558</v>
+        <v>0.003522727383423408</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N11">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O11">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P11">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q11">
-        <v>2650.55430251813</v>
+        <v>5035.216522584244</v>
       </c>
       <c r="R11">
-        <v>15903.32581510878</v>
+        <v>30211.29913550546</v>
       </c>
       <c r="S11">
-        <v>0.002788851592446383</v>
+        <v>0.002587208949810055</v>
       </c>
       <c r="T11">
-        <v>0.002223261085915436</v>
+        <v>0.002090856464675938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N12">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O12">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P12">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q12">
-        <v>28263.44093677289</v>
+        <v>4294.326942634066</v>
       </c>
       <c r="R12">
-        <v>254370.968430956</v>
+        <v>38648.94248370659</v>
       </c>
       <c r="S12">
-        <v>0.02973813522313008</v>
+        <v>0.002206523006421006</v>
       </c>
       <c r="T12">
-        <v>0.03556067970146785</v>
+        <v>0.002674806895343875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N13">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O13">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P13">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q13">
-        <v>7360.139831362741</v>
+        <v>31906.88307870239</v>
       </c>
       <c r="R13">
-        <v>66241.25848226466</v>
+        <v>287161.9477083215</v>
       </c>
       <c r="S13">
-        <v>0.007744167953783559</v>
+        <v>0.01639448335369588</v>
       </c>
       <c r="T13">
-        <v>0.009260428540410778</v>
+        <v>0.01987383634453668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N14">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O14">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P14">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q14">
-        <v>212353.0566231494</v>
+        <v>378482.4306945532</v>
       </c>
       <c r="R14">
-        <v>1274118.339738896</v>
+        <v>2270894.584167319</v>
       </c>
       <c r="S14">
-        <v>0.2234329474260135</v>
+        <v>0.1944728945908858</v>
       </c>
       <c r="T14">
-        <v>0.1781198320732068</v>
+        <v>0.157163536748529</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N15">
         <v>0.236996</v>
       </c>
       <c r="O15">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P15">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q15">
-        <v>41.440874795148</v>
+        <v>73.59955332614713</v>
       </c>
       <c r="R15">
-        <v>372.967873156332</v>
+        <v>662.3959799353241</v>
       </c>
       <c r="S15">
-        <v>4.360312465774475E-05</v>
+        <v>3.781712707156863E-05</v>
       </c>
       <c r="T15">
-        <v>5.214034902670108E-05</v>
+        <v>4.584294474101085E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N16">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O16">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P16">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q16">
-        <v>106598.5380037888</v>
+        <v>63309.74566046959</v>
       </c>
       <c r="R16">
-        <v>959386.8420340993</v>
+        <v>569787.7109442264</v>
       </c>
       <c r="S16">
-        <v>0.1121605024963601</v>
+        <v>0.03252998949465232</v>
       </c>
       <c r="T16">
-        <v>0.134120840950596</v>
+        <v>0.03943373350404941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N17">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O17">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P17">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q17">
-        <v>16706.26260863279</v>
+        <v>56364.67568313906</v>
       </c>
       <c r="R17">
-        <v>100237.5756517968</v>
+        <v>338188.0540988343</v>
       </c>
       <c r="S17">
-        <v>0.01757794097470461</v>
+        <v>0.02896145433398664</v>
       </c>
       <c r="T17">
-        <v>0.01401306266903141</v>
+        <v>0.02340523908015958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N18">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O18">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P18">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q18">
-        <v>178142.5364742478</v>
+        <v>48071.08975617753</v>
       </c>
       <c r="R18">
-        <v>1603282.82826823</v>
+        <v>432639.8078055977</v>
       </c>
       <c r="S18">
-        <v>0.1874374337687223</v>
+        <v>0.0247000209596695</v>
       </c>
       <c r="T18">
-        <v>0.2241365336562977</v>
+        <v>0.02994203377250282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N19">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O19">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P19">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q19">
-        <v>46390.45830609357</v>
+        <v>357168.5763113693</v>
       </c>
       <c r="R19">
-        <v>417514.124754842</v>
+        <v>3214517.186802323</v>
       </c>
       <c r="S19">
-        <v>0.04881096131415012</v>
+        <v>0.1835213506865096</v>
       </c>
       <c r="T19">
-        <v>0.05836784815825229</v>
+        <v>0.2224695472608348</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N20">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O20">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P20">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q20">
-        <v>21533.70950296807</v>
+        <v>33679.88548953739</v>
       </c>
       <c r="R20">
-        <v>86134.8380118723</v>
+        <v>134719.5419581496</v>
       </c>
       <c r="S20">
-        <v>0.0226572683236772</v>
+        <v>0.01730549238077002</v>
       </c>
       <c r="T20">
-        <v>0.01204152110821327</v>
+        <v>0.009323638283741935</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,28 +1739,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N21">
         <v>0.236996</v>
       </c>
       <c r="O21">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P21">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q21">
-        <v>4.20232123605</v>
+        <v>6.549378061108001</v>
       </c>
       <c r="R21">
-        <v>25.2139274163</v>
+        <v>39.29626836664801</v>
       </c>
       <c r="S21">
-        <v>4.421584670042479E-06</v>
+        <v>3.365219640384343E-06</v>
       </c>
       <c r="T21">
-        <v>3.524869219147837E-06</v>
+        <v>2.719606872366692E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N22">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O22">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P22">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q22">
-        <v>10809.6487393083</v>
+        <v>5633.722496189407</v>
       </c>
       <c r="R22">
-        <v>64857.8924358498</v>
+        <v>33802.33497713644</v>
       </c>
       <c r="S22">
-        <v>0.01137366100055586</v>
+        <v>0.002894734952809295</v>
       </c>
       <c r="T22">
-        <v>0.009067036042871115</v>
+        <v>0.002339384026191261</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N23">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O23">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P23">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q23">
-        <v>1694.102320048162</v>
+        <v>5015.703950060147</v>
       </c>
       <c r="R23">
-        <v>6776.40928019265</v>
+        <v>20062.81580024059</v>
       </c>
       <c r="S23">
-        <v>0.001782495060955694</v>
+        <v>0.002577182945557462</v>
       </c>
       <c r="T23">
-        <v>0.0009473318493277375</v>
+        <v>0.001388502623716574</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N24">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O24">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P24">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q24">
-        <v>18064.58400721773</v>
+        <v>4277.685480338553</v>
       </c>
       <c r="R24">
-        <v>108387.5040433064</v>
+        <v>25666.11288203132</v>
       </c>
       <c r="S24">
-        <v>0.01900713515944503</v>
+        <v>0.002197972244006765</v>
       </c>
       <c r="T24">
-        <v>0.01515241042914751</v>
+        <v>0.001776294286511811</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N25">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O25">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P25">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q25">
-        <v>4704.234866022038</v>
+        <v>31783.23688249641</v>
       </c>
       <c r="R25">
-        <v>28225.40919613222</v>
+        <v>190699.4212949785</v>
       </c>
       <c r="S25">
-        <v>0.004949686518357086</v>
+        <v>0.01633095112146729</v>
       </c>
       <c r="T25">
-        <v>0.003945869853221719</v>
+        <v>0.01319788056899444</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N26">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O26">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P26">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q26">
-        <v>6394.664699895779</v>
+        <v>142107.2706178381</v>
       </c>
       <c r="R26">
-        <v>38367.98819937467</v>
+        <v>852643.6237070283</v>
       </c>
       <c r="S26">
-        <v>0.006728317474772065</v>
+        <v>0.07301795279835434</v>
       </c>
       <c r="T26">
-        <v>0.005363787178873747</v>
+        <v>0.05900955879773463</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N27">
         <v>0.236996</v>
       </c>
       <c r="O27">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P27">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q27">
-        <v>1.247924109967556</v>
+        <v>27.63412722402312</v>
       </c>
       <c r="R27">
-        <v>11.231316989708</v>
+        <v>248.707145016208</v>
       </c>
       <c r="S27">
-        <v>1.313036725197011E-06</v>
+        <v>1.419904406364804E-05</v>
       </c>
       <c r="T27">
-        <v>1.570121262501965E-06</v>
+        <v>1.721246543009791E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N28">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O28">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P28">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q28">
-        <v>3210.040481042063</v>
+        <v>23770.65467162866</v>
       </c>
       <c r="R28">
-        <v>28890.36432937857</v>
+        <v>213935.892044658</v>
       </c>
       <c r="S28">
-        <v>0.003377529937366857</v>
+        <v>0.01221390385764745</v>
       </c>
       <c r="T28">
-        <v>0.004038829583080351</v>
+        <v>0.01480602475588652</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N29">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O29">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P29">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q29">
-        <v>503.0817520098123</v>
+        <v>21163.01727900996</v>
       </c>
       <c r="R29">
-        <v>3018.490512058874</v>
+        <v>126978.1036740598</v>
       </c>
       <c r="S29">
-        <v>0.0005293309191554226</v>
+        <v>0.01087404036423408</v>
       </c>
       <c r="T29">
-        <v>0.000421980444322523</v>
+        <v>0.008787870648938165</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N30">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O30">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P30">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q30">
-        <v>5364.470884746305</v>
+        <v>18049.05804567856</v>
       </c>
       <c r="R30">
-        <v>48280.23796271675</v>
+        <v>162441.5224111071</v>
       </c>
       <c r="S30">
-        <v>0.005644371501969884</v>
+        <v>0.00927401717522456</v>
       </c>
       <c r="T30">
-        <v>0.006749504822398125</v>
+        <v>0.01124221456818798</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N31">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O31">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P31">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q31">
-        <v>1396.972715435942</v>
+        <v>134104.6437398029</v>
       </c>
       <c r="R31">
-        <v>12572.75443892348</v>
+        <v>1206941.793658226</v>
       </c>
       <c r="S31">
-        <v>0.001469862201406842</v>
+        <v>0.06890602081132297</v>
       </c>
       <c r="T31">
-        <v>0.001757652205067267</v>
+        <v>0.08352974297593556</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>404.808258</v>
+        <v>406.247131</v>
       </c>
       <c r="N32">
-        <v>809.616516</v>
+        <v>812.4942619999999</v>
       </c>
       <c r="O32">
-        <v>0.3790446557934784</v>
+        <v>0.418920806894236</v>
       </c>
       <c r="P32">
-        <v>0.2925703530363589</v>
+        <v>0.332649449546309</v>
       </c>
       <c r="Q32">
-        <v>73465.14443022528</v>
+        <v>218261.9700999193</v>
       </c>
       <c r="R32">
-        <v>440790.8665813517</v>
+        <v>1309571.820599516</v>
       </c>
       <c r="S32">
-        <v>0.07729831637061355</v>
+        <v>0.1121479721701954</v>
       </c>
       <c r="T32">
-        <v>0.06162190173870615</v>
+        <v>0.09063253767329675</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2483,28 +2483,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M33">
-        <v>0.07899866666666666</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N33">
         <v>0.236996</v>
       </c>
       <c r="O33">
-        <v>7.397087836782816E-05</v>
+        <v>8.146318498817605E-05</v>
       </c>
       <c r="P33">
-        <v>8.564301989635413E-05</v>
+        <v>9.703033317505086E-05</v>
       </c>
       <c r="Q33">
-        <v>14.33678375321555</v>
+        <v>42.44314188629556</v>
       </c>
       <c r="R33">
-        <v>129.03105377894</v>
+        <v>381.98827697666</v>
       </c>
       <c r="S33">
-        <v>1.508483043064957E-05</v>
+        <v>2.180825314140097E-05</v>
       </c>
       <c r="T33">
-        <v>1.803834770641759E-05</v>
+        <v>2.643655457399481E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>203.2086053333333</v>
+        <v>67.95401966666667</v>
       </c>
       <c r="N34">
-        <v>609.625816</v>
+        <v>203.862059</v>
       </c>
       <c r="O34">
-        <v>0.1902756041672602</v>
+        <v>0.07007397856667395</v>
       </c>
       <c r="P34">
-        <v>0.220299903327563</v>
+        <v>0.08346471462185807</v>
       </c>
       <c r="Q34">
-        <v>36878.56965674346</v>
+        <v>36509.25034755588</v>
       </c>
       <c r="R34">
-        <v>331907.1269106912</v>
+        <v>328583.253128003</v>
       </c>
       <c r="S34">
-        <v>0.03880277329788848</v>
+        <v>0.01875928449678146</v>
       </c>
       <c r="T34">
-        <v>0.0464001183134591</v>
+        <v>0.02274051228004038</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.847119</v>
+        <v>60.4994735</v>
       </c>
       <c r="N35">
-        <v>63.694238</v>
+        <v>120.998947</v>
       </c>
       <c r="O35">
-        <v>0.02982024210427285</v>
+        <v>0.06238687321411865</v>
       </c>
       <c r="P35">
-        <v>0.02301712641697377</v>
+        <v>0.04953909830225118</v>
       </c>
       <c r="Q35">
-        <v>5779.657778180927</v>
+        <v>32504.19084465575</v>
       </c>
       <c r="R35">
-        <v>34677.94666908556</v>
+        <v>195025.1450679345</v>
       </c>
       <c r="S35">
-        <v>0.006081221495127151</v>
+        <v>0.01670139369030886</v>
       </c>
       <c r="T35">
-        <v>0.004847924909869012</v>
+        <v>0.01349725423957116</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>339.5928036666666</v>
+        <v>51.597487</v>
       </c>
       <c r="N36">
-        <v>1018.778411</v>
+        <v>154.792461</v>
       </c>
       <c r="O36">
-        <v>0.3179797714891823</v>
+        <v>0.05320717178862945</v>
       </c>
       <c r="P36">
-        <v>0.3681549887898912</v>
+        <v>0.06337475764914204</v>
       </c>
       <c r="Q36">
-        <v>61629.75649779556</v>
+        <v>27721.4737174968</v>
       </c>
       <c r="R36">
-        <v>554667.8084801601</v>
+        <v>249493.2634574712</v>
       </c>
       <c r="S36">
-        <v>0.06484539644695106</v>
+        <v>0.01424392468171799</v>
       </c>
       <c r="T36">
-        <v>0.07754172734311807</v>
+        <v>0.01726687092976027</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>88.434049</v>
+        <v>383.3697356666667</v>
       </c>
       <c r="N37">
-        <v>265.302147</v>
+        <v>1150.109207</v>
       </c>
       <c r="O37">
-        <v>0.08280575556743855</v>
+        <v>0.3953297063513538</v>
       </c>
       <c r="P37">
-        <v>0.09587198540931691</v>
+        <v>0.4708749495472647</v>
       </c>
       <c r="Q37">
-        <v>16049.12956675558</v>
+        <v>205970.7685253585</v>
       </c>
       <c r="R37">
-        <v>144442.1661008002</v>
+        <v>1853736.916728226</v>
       </c>
       <c r="S37">
-        <v>0.0168865208711635</v>
+        <v>0.1058324728118277</v>
       </c>
       <c r="T37">
-        <v>0.02019279808454621</v>
+        <v>0.1282929872947619</v>
       </c>
     </row>
   </sheetData>
